--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -2694,7 +2694,7 @@
         <v>11.4</v>
       </c>
       <c r="T20">
-        <v>0.05222222222222222</v>
+        <v>0.05</v>
       </c>
       <c r="U20">
         <v>0.84</v>
@@ -2804,7 +2804,7 @@
         <v>8.9</v>
       </c>
       <c r="T21">
-        <v>0.05222222222222222</v>
+        <v>0.05</v>
       </c>
       <c r="U21">
         <v>0.78</v>
